--- a/Js/FirstExcelFile/teams.xlsx
+++ b/Js/FirstExcelFile/teams.xlsx
@@ -15,13 +15,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Opponent</t>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Vs</t>
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>Rank</t>
   </si>
   <si>
     <t>Austrailia</t>
@@ -89,39 +89,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -132,39 +134,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -175,39 +179,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
